--- a/data/test_login.xlsx
+++ b/data/test_login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25920" windowHeight="7170"/>
+    <workbookView windowWidth="25545" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="test_01_login" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>序号</t>
   </si>
@@ -37,7 +37,10 @@
     <t>输入正确的用户名和密码</t>
   </si>
   <si>
-    <t>superadmin</t>
+    <t>mrbird</t>
+  </si>
+  <si>
+    <t>123456qq</t>
   </si>
   <si>
     <t>y</t>
@@ -991,7 +994,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1032,11 +1035,11 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1">
-        <v>452698</v>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1049,11 +1052,11 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1">
-        <v>1233</v>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1066,11 +1069,11 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1">
-        <v>452698</v>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
